--- a/doc/OpenGL matrix.xlsx
+++ b/doc/OpenGL matrix.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="945" yWindow="3825" windowWidth="27795" windowHeight="15075"/>
+    <workbookView xWindow="-300" yWindow="2145" windowWidth="27795" windowHeight="15075"/>
   </bookViews>
   <sheets>
-    <sheet name="2012-12" sheetId="1" r:id="rId1"/>
+    <sheet name="2013-01" sheetId="2" r:id="rId1"/>
+    <sheet name="2012-12" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2011" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4191" uniqueCount="216">
   <si>
     <t>Fermi</t>
   </si>
@@ -551,13 +552,124 @@
   </si>
   <si>
     <t>GT21X</t>
+  </si>
+  <si>
+    <t>OpenGL Matrix - January 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apple </t>
+  </si>
+  <si>
+    <t>10.8.2</t>
+  </si>
+  <si>
+    <t>MacOS X</t>
+  </si>
+  <si>
+    <t>AMD_vertex_shader_viewport_index</t>
+  </si>
+  <si>
+    <t>AMD_transform_feedback3_lines_triangles</t>
+  </si>
+  <si>
+    <t>EXT_framebuffer_multisample_blit_scaled</t>
+  </si>
+  <si>
+    <t>NV_vertex_buffer_unified_memory</t>
+  </si>
+  <si>
+    <t>AMD_vertex_shader_layer</t>
+  </si>
+  <si>
+    <t>EXT_texture_sRGB_decode</t>
+  </si>
+  <si>
+    <t>KHR_texture_compression_astc_ldr</t>
+  </si>
+  <si>
+    <t>NV_texture_multisample</t>
+  </si>
+  <si>
+    <t>EXT_texture_mirror_clamp</t>
+  </si>
+  <si>
+    <t>ARB_robustness</t>
+  </si>
+  <si>
+    <t>AMD_stencil_operation_extended</t>
+  </si>
+  <si>
+    <t>AMD_sparse_texture</t>
+  </si>
+  <si>
+    <t>ARB_shading_language_include</t>
+  </si>
+  <si>
+    <t>AMD_shader_trinary_minmax</t>
+  </si>
+  <si>
+    <t>ARB_shader_stencil_export</t>
+  </si>
+  <si>
+    <t>NV_shader_buffer_store</t>
+  </si>
+  <si>
+    <t>NV_shader_buffer_load</t>
+  </si>
+  <si>
+    <t>NV_shader_atomic_float</t>
+  </si>
+  <si>
+    <t>AMD_seamless_cubemap_per_texture</t>
+  </si>
+  <si>
+    <t>AMD_sample_positions</t>
+  </si>
+  <si>
+    <t>AMD_query_buffer_object</t>
+  </si>
+  <si>
+    <t>AMD_pinned_memory</t>
+  </si>
+  <si>
+    <t>NV_multisample_coverage</t>
+  </si>
+  <si>
+    <t>INTEL_map_texture</t>
+  </si>
+  <si>
+    <t>NV_explicit_multisample</t>
+  </si>
+  <si>
+    <t>EXT_direct_state_access</t>
+  </si>
+  <si>
+    <t>EXT_depth_bounds_test</t>
+  </si>
+  <si>
+    <t>ARB_debug_output</t>
+  </si>
+  <si>
+    <t>NV_copy_image </t>
+  </si>
+  <si>
+    <t>ARB_cl_event</t>
+  </si>
+  <si>
+    <t>AMD_blend_minmax_factor</t>
+  </si>
+  <si>
+    <t>NV_bindless_texture</t>
+  </si>
+  <si>
+    <t>Cayman</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -619,6 +731,13 @@
       <name val="Cambria"/>
       <family val="1"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -711,7 +830,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -738,6 +857,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -750,17 +885,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1065,10 +1200,7900 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O182"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="41" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+    </row>
+    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="40" t="s">
+        <v>171</v>
+      </c>
+      <c r="N4" s="40" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="N5" s="26" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="B6" s="29">
+        <v>41261</v>
+      </c>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="29">
+        <v>41250</v>
+      </c>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="28">
+        <v>41259</v>
+      </c>
+      <c r="N6" s="28">
+        <v>41187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="24"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>178</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="I8" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="K8" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="L8" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="M8" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="N8" s="37" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="O15" s="2"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L27" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="N27" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L28" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="N28" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L29" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="N29" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="N30" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="M31" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="N31" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="N32" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L33" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="N33" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L34" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="N34" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="35" t="s">
+        <v>209</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="L35" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="M35" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="N35" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L36" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="M36" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="N36" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L37" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="N37" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="L38" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="M38" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="N38" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L39" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="M39" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="N39" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="M40" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="N40" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="B41" s="6">
+        <f t="shared" ref="B41:N41" si="0">COUNTIF(B9:B40,"V") / (COUNTIF(B9:B40,"V") + COUNTIF(B9:B40,"X"))</f>
+        <v>0.375</v>
+      </c>
+      <c r="C41" s="6">
+        <f t="shared" si="0"/>
+        <v>0.375</v>
+      </c>
+      <c r="D41" s="6">
+        <f t="shared" si="0"/>
+        <v>0.375</v>
+      </c>
+      <c r="E41" s="6">
+        <f t="shared" si="0"/>
+        <v>0.46875</v>
+      </c>
+      <c r="F41" s="6">
+        <f t="shared" si="0"/>
+        <v>0.5625</v>
+      </c>
+      <c r="G41" s="6">
+        <f t="shared" si="0"/>
+        <v>0.21875</v>
+      </c>
+      <c r="H41" s="6">
+        <f t="shared" si="0"/>
+        <v>0.21875</v>
+      </c>
+      <c r="I41" s="6">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="J41" s="6">
+        <f t="shared" si="0"/>
+        <v>0.40625</v>
+      </c>
+      <c r="K41" s="6">
+        <f t="shared" si="0"/>
+        <v>0.46875</v>
+      </c>
+      <c r="L41" s="6">
+        <f t="shared" si="0"/>
+        <v>0.59375</v>
+      </c>
+      <c r="M41" s="6">
+        <f t="shared" ref="M41" si="1">COUNTIF(M9:M40,"V") / (COUNTIF(M9:M40,"V") + COUNTIF(M9:M40,"X"))</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="N41" s="6">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="13"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="14"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="B43" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="C43" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D43" s="37" t="s">
+        <v>178</v>
+      </c>
+      <c r="E43" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="F43" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="G43" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="H43" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="I43" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="J43" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="K43" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="L43" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="M43" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="N43" s="37" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="K44" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="L44" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="M44" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="N44" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="K45" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="L45" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="M45" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="N45" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J46" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="K46" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="L46" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="M46" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="N46" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="K47" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="L47" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="M47" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="N47" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="K48" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="L48" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="M48" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="N48" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="K49" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="L49" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="M49" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="N49" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="K50" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="L50" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="M50" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="N50" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="K51" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="L51" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="M51" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="N51" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J52" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="K52" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="L52" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="M52" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="N52" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J53" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="K53" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="L53" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="M53" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="N53" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J54" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="K54" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="L54" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="M54" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="N54" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J55" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="K55" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="L55" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="M55" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="N55" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J56" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="K56" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="L56" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="M56" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="N56" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J57" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="K57" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="L57" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="M57" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="N57" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J58" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="K58" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="L58" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="M58" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="N58" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J59" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="K59" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="L59" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="M59" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="N59" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J60" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="K60" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="L60" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="M60" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="N60" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J61" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="K61" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="L61" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="M61" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="N61" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J62" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="K62" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="L62" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="M62" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="N62" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J63" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="K63" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="L63" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="M63" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="N63" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I64" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J64" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="K64" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="L64" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="M64" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="N64" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A65" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I65" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J65" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="K65" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="L65" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="M65" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="N65" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A66" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="H66" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="I66" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="J66" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K66" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L66" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="M66" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="N66" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="B67" s="6">
+        <f t="shared" ref="B67:N67" si="2">COUNTIF(B44:B66,"V") / (COUNTIF(B44:B66,"V") + COUNTIF(B44:B66,"X"))</f>
+        <v>0.82608695652173914</v>
+      </c>
+      <c r="C67" s="6">
+        <f t="shared" si="2"/>
+        <v>0.82608695652173914</v>
+      </c>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F67" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G67" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H67" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I67" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J67" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K67" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L67" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M67" s="6">
+        <f t="shared" ref="M67" si="3">COUNTIF(M44:M66,"V") / (COUNTIF(M44:M66,"V") + COUNTIF(M44:M66,"X"))</f>
+        <v>0</v>
+      </c>
+      <c r="N67" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="18"/>
+      <c r="B68" s="12"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="12"/>
+      <c r="I68" s="12"/>
+      <c r="J68" s="12"/>
+      <c r="K68" s="12"/>
+      <c r="L68" s="12"/>
+      <c r="M68" s="12"/>
+      <c r="N68" s="12"/>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A69" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B69" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="C69" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D69" s="37" t="s">
+        <v>178</v>
+      </c>
+      <c r="E69" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="F69" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="G69" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="H69" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="I69" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="J69" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="K69" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="L69" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="M69" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="N69" s="37" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A70" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="H70" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="I70" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="J70" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="K70" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L70" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="M70" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="N70" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A71" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I71" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J71" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="K71" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L71" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="M71" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="N71" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A72" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="H72" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="I72" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="J72" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="K72" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L72" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="M72" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="N72" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A73" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="H73" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="I73" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="J73" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="K73" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L73" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="M73" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="N73" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A74" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="H74" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="I74" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="J74" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="K74" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L74" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="M74" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="N74" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A75" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I75" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J75" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="K75" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L75" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="M75" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="N75" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A76" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I76" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J76" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="K76" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L76" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="M76" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="N76" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A77" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="H77" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="I77" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="J77" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="K77" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L77" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="M77" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="N77" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A78" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="H78" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="I78" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="J78" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="K78" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L78" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="M78" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="N78" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A79" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="H79" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="I79" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="J79" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="K79" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L79" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="M79" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="N79" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A80" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="H80" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="I80" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="J80" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="K80" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L80" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="M80" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="N80" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A81" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="F81" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="G81" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="H81" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="I81" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="J81" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="K81" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="L81" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="M81" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="N81" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="B82" s="6">
+        <f t="shared" ref="B82:N82" si="4">COUNTIF(B$70:B$81,"V") / (COUNTIF(B$70:B$81,"V") + COUNTIF(B$70:B$81,"X"))</f>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C82" s="6">
+        <f t="shared" si="4"/>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D82" s="6">
+        <f t="shared" si="4"/>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E82" s="6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F82" s="6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G82" s="6">
+        <f t="shared" si="4"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H82" s="6">
+        <f t="shared" si="4"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I82" s="6">
+        <f t="shared" si="4"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J82" s="6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K82" s="6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="L82" s="6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M82" s="6">
+        <f t="shared" si="4"/>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="N82" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="18"/>
+      <c r="B83" s="12"/>
+      <c r="C83" s="12"/>
+      <c r="D83" s="12"/>
+      <c r="E83" s="12"/>
+      <c r="F83" s="12"/>
+      <c r="G83" s="12"/>
+      <c r="H83" s="12"/>
+      <c r="I83" s="12"/>
+      <c r="J83" s="12"/>
+      <c r="K83" s="12"/>
+      <c r="L83" s="12"/>
+      <c r="M83" s="12"/>
+      <c r="N83" s="12"/>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A84" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="B84" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="C84" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D84" s="37" t="s">
+        <v>178</v>
+      </c>
+      <c r="E84" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="F84" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="G84" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="H84" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="I84" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="J84" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="K84" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="L84" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="M84" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="N84" s="37" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A85" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J85" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K85" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L85" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="M85" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="N85" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A86" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="J86" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K86" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L86" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="M86" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="N86" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A87" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I87" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J87" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K87" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L87" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="M87" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="N87" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A88" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J88" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K88" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L88" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="M88" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="N88" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A89" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="M89" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="N89" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A90" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="E90" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="F90" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="G90" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="H90" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="I90" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="J90" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="K90" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="L90" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="M90" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="N90" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="B91" s="6">
+        <f t="shared" ref="B91:N91" si="5">COUNTIF(B$85:B$90,"V") / (COUNTIF(B$85:B$90,"V") + COUNTIF(B$85:B$90,"X"))</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C91" s="6">
+        <f t="shared" si="5"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D91" s="6">
+        <f t="shared" si="5"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E91" s="6">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="F91" s="6">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G91" s="6">
+        <f t="shared" si="5"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="H91" s="6">
+        <f t="shared" si="5"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="I91" s="6">
+        <f t="shared" si="5"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="J91" s="6">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="K91" s="6">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="L91" s="6">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="M91" s="6">
+        <f t="shared" si="5"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="N91" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="18"/>
+      <c r="B92" s="12"/>
+      <c r="C92" s="12"/>
+      <c r="D92" s="12"/>
+      <c r="E92" s="12"/>
+      <c r="F92" s="12"/>
+      <c r="G92" s="12"/>
+      <c r="H92" s="12"/>
+      <c r="I92" s="12"/>
+      <c r="J92" s="12"/>
+      <c r="K92" s="12"/>
+      <c r="L92" s="12"/>
+      <c r="M92" s="12"/>
+      <c r="N92" s="12"/>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A93" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="B93" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="C93" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D93" s="37" t="s">
+        <v>178</v>
+      </c>
+      <c r="E93" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="F93" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="G93" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="H93" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="I93" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="J93" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="K93" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="L93" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="M93" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="N93" s="37" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A94" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="N94" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A95" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I95" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J95" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K95" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L95" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="M95" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="N95" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A96" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="I96" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J96" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K96" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L96" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="M96" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="N96" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A97" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H97" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I97" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J97" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K97" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L97" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="M97" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="N97" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A98" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I98" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J98" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K98" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L98" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="M98" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="N98" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A99" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H99" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I99" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J99" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K99" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L99" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="M99" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="N99" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A100" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="N100" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A101" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="N101" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A102" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="N102" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A103" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="J103" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K103" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L103" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="M103" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="N103" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A104" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="J104" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K104" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L104" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="M104" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="N104" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A105" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="J105" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K105" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L105" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="M105" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="N105" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A106" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H106" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I106" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J106" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K106" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L106" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="M106" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="N106" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="B107" s="21">
+        <f t="shared" ref="B107:N107" si="6">COUNTIF(B$94:B$106,"V") / (COUNTIF(B$94:B$106,"V") + COUNTIF(B$94:B$106,"X"))</f>
+        <v>0</v>
+      </c>
+      <c r="C107" s="21">
+        <f t="shared" si="6"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="D107" s="21">
+        <f t="shared" si="6"/>
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="E107" s="21">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F107" s="21">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G107" s="21">
+        <f t="shared" si="6"/>
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="H107" s="21">
+        <f t="shared" si="6"/>
+        <v>0.53846153846153844</v>
+      </c>
+      <c r="I107" s="21">
+        <f t="shared" si="6"/>
+        <v>0.61538461538461542</v>
+      </c>
+      <c r="J107" s="21">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K107" s="21">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="L107" s="21">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M107" s="21">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="N107" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="18"/>
+      <c r="B108" s="12"/>
+      <c r="C108" s="12"/>
+      <c r="D108" s="12"/>
+      <c r="E108" s="12"/>
+      <c r="F108" s="12"/>
+      <c r="G108" s="12"/>
+      <c r="H108" s="12"/>
+      <c r="I108" s="12"/>
+      <c r="J108" s="12"/>
+      <c r="K108" s="12"/>
+      <c r="L108" s="12"/>
+      <c r="M108" s="12"/>
+      <c r="N108" s="12"/>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A109" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="B109" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="C109" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D109" s="37" t="s">
+        <v>178</v>
+      </c>
+      <c r="E109" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="F109" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="G109" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="H109" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="I109" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="J109" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="K109" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="L109" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="M109" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="N109" s="37" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A110" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H110" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I110" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J110" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K110" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L110" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="M110" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="N110" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A111" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G111" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H111" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I111" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J111" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K111" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L111" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="M111" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="N111" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A112" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G112" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H112" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I112" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J112" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K112" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L112" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="M112" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="N112" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A113" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G113" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H113" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I113" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J113" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K113" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L113" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="M113" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="N113" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A114" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G114" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H114" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I114" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J114" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K114" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L114" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="M114" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="N114" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A115" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G115" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H115" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I115" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J115" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K115" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L115" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="M115" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="N115" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A116" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G116" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H116" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I116" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J116" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K116" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L116" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="M116" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="N116" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A117" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G117" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H117" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I117" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J117" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K117" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L117" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="M117" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="N117" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A118" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G118" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H118" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I118" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J118" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K118" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L118" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="M118" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="N118" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A119" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G119" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H119" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I119" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J119" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K119" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L119" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="M119" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="N119" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="B120" s="21">
+        <f t="shared" ref="B120:N120" si="7">COUNTIF(B$110:B$119,"V") / (COUNTIF(B$110:B$119,"V") + COUNTIF(B$110:B$119,"X"))</f>
+        <v>1</v>
+      </c>
+      <c r="C120" s="21">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="D120" s="21">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E120" s="21">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="F120" s="21">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G120" s="21">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H120" s="21">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="I120" s="21">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J120" s="21">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="K120" s="21">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="L120" s="21">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="M120" s="21">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N120" s="21">
+        <f t="shared" si="7"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="18"/>
+      <c r="B121" s="12"/>
+      <c r="C121" s="12"/>
+      <c r="D121" s="12"/>
+      <c r="E121" s="12"/>
+      <c r="F121" s="12"/>
+      <c r="G121" s="12"/>
+      <c r="H121" s="12"/>
+      <c r="I121" s="12"/>
+      <c r="J121" s="12"/>
+      <c r="K121" s="12"/>
+      <c r="L121" s="12"/>
+      <c r="M121" s="12"/>
+      <c r="N121" s="12"/>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A122" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="B122" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="C122" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D122" s="37" t="s">
+        <v>178</v>
+      </c>
+      <c r="E122" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="F122" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="G122" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="H122" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="I122" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="J122" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="K122" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="L122" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="M122" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="N122" s="37" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A123" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G123" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H123" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I123" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J123" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K123" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L123" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="M123" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="N123" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A124" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G124" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H124" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I124" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J124" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K124" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L124" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="M124" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="N124" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A125" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G125" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H125" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I125" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J125" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K125" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L125" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="M125" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="N125" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A126" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G126" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H126" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I126" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J126" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K126" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L126" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="M126" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="N126" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A127" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G127" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H127" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I127" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J127" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K127" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L127" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="M127" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="N127" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A128" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H128" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I128" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J128" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K128" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L128" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="M128" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="N128" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A129" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G129" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H129" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I129" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J129" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K129" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L129" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="M129" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="N129" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A130" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G130" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H130" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I130" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J130" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K130" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L130" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="M130" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="N130" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A131" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G131" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H131" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I131" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J131" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K131" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L131" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="M131" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="N131" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="B132" s="21">
+        <f t="shared" ref="B132:N132" si="8">COUNTIF(B$123:B$131,"V") / (COUNTIF(B$123:B$131,"V") + COUNTIF(B$123:B$131,"X"))</f>
+        <v>1</v>
+      </c>
+      <c r="C132" s="21">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D132" s="21">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="E132" s="21">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="F132" s="21">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="G132" s="21">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="H132" s="21">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="I132" s="21">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="J132" s="21">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K132" s="21">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="L132" s="21">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="M132" s="21">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="N132" s="21">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="18"/>
+      <c r="B133" s="12"/>
+      <c r="C133" s="12"/>
+      <c r="D133" s="12"/>
+      <c r="E133" s="12"/>
+      <c r="F133" s="12"/>
+      <c r="G133" s="12"/>
+      <c r="H133" s="12"/>
+      <c r="I133" s="12"/>
+      <c r="J133" s="12"/>
+      <c r="K133" s="12"/>
+      <c r="L133" s="12"/>
+      <c r="M133" s="12"/>
+      <c r="N133" s="12"/>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A134" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="B134" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="C134" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D134" s="37" t="s">
+        <v>178</v>
+      </c>
+      <c r="E134" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="F134" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="G134" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="H134" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="I134" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="J134" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="K134" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="L134" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="M134" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="N134" s="37" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A135" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F135" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G135" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H135" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I135" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J135" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K135" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L135" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="M135" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="N135" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A136" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G136" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H136" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I136" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J136" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K136" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L136" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="M136" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="N136" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A137" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F137" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G137" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H137" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I137" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J137" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K137" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L137" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="M137" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="N137" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A138" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F138" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G138" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H138" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I138" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J138" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K138" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L138" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="M138" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="N138" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A139" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F139" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G139" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H139" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I139" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J139" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K139" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L139" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="M139" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="N139" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A140" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F140" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G140" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H140" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I140" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J140" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K140" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L140" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="M140" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="N140" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A141" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F141" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G141" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H141" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I141" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J141" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K141" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L141" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="M141" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="N141" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A142" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F142" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G142" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H142" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I142" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J142" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K142" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L142" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="M142" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="N142" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="B143" s="21">
+        <f t="shared" ref="B143:N143" si="9">COUNTIF(B$135:B$142,"V") / (COUNTIF(B$135:B$142,"V") + COUNTIF(B$135:B$142,"X"))</f>
+        <v>1</v>
+      </c>
+      <c r="C143" s="21">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D143" s="21">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E143" s="21">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="F143" s="21">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="G143" s="21">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="H143" s="21">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I143" s="21">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J143" s="21">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="K143" s="21">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="L143" s="21">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="M143" s="21">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="N143" s="21">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="18"/>
+      <c r="B144" s="12"/>
+      <c r="C144" s="12"/>
+      <c r="D144" s="12"/>
+      <c r="E144" s="12"/>
+      <c r="F144" s="12"/>
+      <c r="G144" s="12"/>
+      <c r="H144" s="12"/>
+      <c r="I144" s="12"/>
+      <c r="J144" s="12"/>
+      <c r="K144" s="12"/>
+      <c r="L144" s="12"/>
+      <c r="M144" s="12"/>
+      <c r="N144" s="12"/>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A145" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="B145" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="C145" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D145" s="37" t="s">
+        <v>178</v>
+      </c>
+      <c r="E145" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="F145" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="G145" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="H145" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="I145" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="J145" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="K145" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="L145" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="M145" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="N145" s="37" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A146" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F146" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G146" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H146" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I146" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J146" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K146" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L146" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="M146" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="N146" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A147" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F147" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G147" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H147" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I147" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J147" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K147" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L147" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="M147" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="N147" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A148" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F148" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G148" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H148" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I148" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J148" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K148" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L148" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="M148" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="N148" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A149" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F149" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G149" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H149" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I149" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J149" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K149" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L149" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="M149" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="N149" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A150" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F150" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G150" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H150" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I150" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J150" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K150" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L150" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="M150" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="N150" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A151" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F151" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G151" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H151" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I151" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J151" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K151" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L151" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="M151" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="N151" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A152" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F152" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G152" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H152" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I152" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J152" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K152" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L152" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="M152" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="N152" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A153" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F153" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G153" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H153" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I153" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J153" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K153" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L153" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="M153" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="N153" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A154" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F154" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G154" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H154" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I154" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J154" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K154" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L154" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="M154" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="N154" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A155" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F155" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G155" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H155" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I155" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J155" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K155" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L155" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="M155" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="N155" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A156" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F156" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G156" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H156" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I156" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J156" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K156" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L156" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="M156" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="N156" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A157" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F157" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G157" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H157" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I157" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J157" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K157" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L157" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="M157" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="N157" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A158" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F158" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G158" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H158" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I158" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J158" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K158" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L158" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="M158" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="N158" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A159" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F159" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G159" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H159" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I159" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J159" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K159" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L159" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="M159" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="N159" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A160" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F160" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G160" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H160" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I160" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J160" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K160" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L160" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="M160" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="N160" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A161" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F161" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G161" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H161" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I161" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J161" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K161" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L161" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="M161" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="N161" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A162" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E162" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F162" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G162" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H162" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I162" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J162" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K162" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L162" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="M162" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="N162" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A163" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E163" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F163" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G163" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H163" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I163" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J163" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K163" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L163" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="M163" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="N163" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A164" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E164" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F164" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G164" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H164" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I164" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J164" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K164" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L164" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="M164" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="N164" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="B165" s="21">
+        <f>COUNTIF(B$168:B$169,"V") / (COUNTIF(B$168:B$169,"V") + COUNTIF(B$168:B$169,"X"))</f>
+        <v>1</v>
+      </c>
+      <c r="C165" s="21">
+        <f t="shared" ref="C165:N165" si="10">COUNTIF(C$146:C$164,"V") / (COUNTIF(C$146:C$164,"V") + COUNTIF(C$146:C$164,"X"))</f>
+        <v>1</v>
+      </c>
+      <c r="D165" s="21">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E165" s="21">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="F165" s="21">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="G165" s="21">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H165" s="21">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="I165" s="21">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="J165" s="21">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="K165" s="21">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="L165" s="21">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="M165" s="21">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="N165" s="21">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="18"/>
+      <c r="B166" s="12"/>
+      <c r="C166" s="12"/>
+      <c r="D166" s="12"/>
+      <c r="E166" s="12"/>
+      <c r="F166" s="12"/>
+      <c r="G166" s="12"/>
+      <c r="H166" s="12"/>
+      <c r="I166" s="12"/>
+      <c r="J166" s="12"/>
+      <c r="K166" s="12"/>
+      <c r="L166" s="12"/>
+      <c r="M166" s="12"/>
+      <c r="N166" s="12"/>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A167" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="B167" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="C167" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D167" s="37" t="s">
+        <v>178</v>
+      </c>
+      <c r="E167" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="F167" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="G167" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="H167" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="I167" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="J167" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="K167" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="L167" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="M167" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="N167" s="37" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A168" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E168" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F168" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G168" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H168" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I168" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J168" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K168" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L168" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="M168" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="N168" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A169" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E169" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F169" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G169" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H169" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I169" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J169" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K169" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L169" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="M169" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="N169" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="B170" s="21">
+        <f>COUNTIF(B$168:B$169,"V") / (COUNTIF(B$168:B$169,"V") + COUNTIF(B$168:B$169,"X"))</f>
+        <v>1</v>
+      </c>
+      <c r="C170" s="21">
+        <f t="shared" ref="C170:N170" si="11">COUNTIF(C$168:C$169,"V") / (COUNTIF(C$168:C$169,"V") + COUNTIF(C$168:C$169,"X"))</f>
+        <v>1</v>
+      </c>
+      <c r="D170" s="21">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="E170" s="21">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="F170" s="21">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G170" s="21">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="H170" s="21">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="I170" s="21">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J170" s="21">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="K170" s="21">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="L170" s="21">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="M170" s="21">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="N170" s="21">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="18"/>
+      <c r="B171" s="12"/>
+      <c r="C171" s="12"/>
+      <c r="D171" s="12"/>
+      <c r="E171" s="12"/>
+      <c r="F171" s="12"/>
+      <c r="G171" s="12"/>
+      <c r="H171" s="12"/>
+      <c r="I171" s="12"/>
+      <c r="J171" s="12"/>
+      <c r="K171" s="12"/>
+      <c r="L171" s="12"/>
+      <c r="M171" s="12"/>
+      <c r="N171" s="12"/>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A172" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="B172" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="C172" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D172" s="37" t="s">
+        <v>178</v>
+      </c>
+      <c r="E172" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="F172" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="G172" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="H172" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="I172" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="J172" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="K172" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="L172" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="M172" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="N172" s="37" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A173" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D173" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E173" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F173" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G173" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H173" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I173" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J173" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K173" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L173" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="M173" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="N173" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A174" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E174" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F174" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G174" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H174" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I174" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J174" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K174" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L174" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="M174" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="N174" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A175" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E175" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F175" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G175" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H175" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I175" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J175" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K175" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L175" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="M175" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="N175" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A176" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E176" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F176" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G176" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H176" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I176" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J176" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K176" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L176" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="M176" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="N176" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A177" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D177" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E177" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F177" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G177" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H177" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I177" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J177" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K177" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L177" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="M177" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="N177" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A178" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E178" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F178" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G178" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H178" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I178" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J178" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K178" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L178" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="M178" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="N178" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A179" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E179" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F179" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G179" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H179" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I179" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J179" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K179" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L179" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="M179" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="N179" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A180" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E180" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F180" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G180" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H180" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I180" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J180" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K180" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L180" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="M180" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="N180" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A181" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D181" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E181" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F181" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G181" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H181" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I181" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J181" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K181" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L181" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="M181" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="N181" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="B182" s="21">
+        <f>COUNTIF(B$173:B$181,"V") / (COUNTIF(B$173:B$181,"V") + COUNTIF(B$173:B$181,"X"))</f>
+        <v>1</v>
+      </c>
+      <c r="C182" s="21">
+        <f t="shared" ref="C182:N182" si="12">COUNTIF(C$173:C$181,"V") / (COUNTIF(C$173:C$181,"V") + COUNTIF(C$173:C$181,"X"))</f>
+        <v>1</v>
+      </c>
+      <c r="D182" s="21">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E182" s="21">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="F182" s="21">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="G182" s="21">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="H182" s="21">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="I182" s="21">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="J182" s="21">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="K182" s="21">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="L182" s="21">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="M182" s="21">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="N182" s="21">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="G6:L6"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="G4:L4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="G5:L5"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A46" r:id="rId1" display="http://www.opengl.org/registry/specs/ARB/texture_storage_multisample.txt"/>
+    <hyperlink ref="A47" r:id="rId2" display="http://www.opengl.org/registry/specs/ARB/texture_query_levels.txt"/>
+    <hyperlink ref="A49" r:id="rId3" display="http://www.opengl.org/registry/specs/ARB/stencil_texturing.txt"/>
+    <hyperlink ref="A50" r:id="rId4" display="http://www.opengl.org/registry/specs/ARB/shader_storage_buffer_object.txt"/>
+    <hyperlink ref="A51" r:id="rId5" display="http://www.opengl.org/registry/specs/ARB/shader_image_size.txt"/>
+    <hyperlink ref="A53" r:id="rId6" display="http://www.opengl.org/registry/specs/ARB/robust_buffer_access_behavior.txt"/>
+    <hyperlink ref="A54" r:id="rId7" display="http://www.opengl.org/registry/specs/ARB/program_interface_query.txt"/>
+    <hyperlink ref="A55" r:id="rId8" display="http://www.opengl.org/registry/specs/ARB/multi_draw_indirect.txt"/>
+    <hyperlink ref="A56" r:id="rId9" display="http://www.opengl.org/registry/specs/ARB/invalidate_subdata.txt"/>
+    <hyperlink ref="A57" r:id="rId10" display="http://www.opengl.org/registry/specs/ARB/internalformat_query2.txt"/>
+    <hyperlink ref="A58" r:id="rId11" display="http://www.opengl.org/registry/specs/ARB/framebuffer_no_attachments.txt"/>
+    <hyperlink ref="A59" r:id="rId12" display="http://www.opengl.org/registry/specs/ARB/fragment_layer_viewport.txt"/>
+    <hyperlink ref="A60" r:id="rId13" display="http://www.opengl.org/registry/specs/ARB/explicit_uniform_location.txt"/>
+    <hyperlink ref="A61" r:id="rId14" display="http://www.opengl.org/registry/specs/ARB/ES3_compatibility.txt"/>
+    <hyperlink ref="A52" r:id="rId15" display="http://www.opengl.org/registry/specs/ARB/robustness_isolation.txt"/>
+    <hyperlink ref="A44" r:id="rId16" display="http://www.opengl.org/registry/specs/ARB/vertex_attrib_binding.txt"/>
+    <hyperlink ref="A45" r:id="rId17" display="http://www.opengl.org/registry/specs/ARB/texture_view.txt"/>
+    <hyperlink ref="A63" r:id="rId18" display="http://www.opengl.org/registry/specs/ARB/copy_image.txt"/>
+    <hyperlink ref="A64" r:id="rId19" display="http://www.opengl.org/registry/specs/ARB/compute_shader.txt"/>
+    <hyperlink ref="A65" r:id="rId20" display="http://www.opengl.org/registry/specs/ARB/clear_buffer_object.txt"/>
+    <hyperlink ref="A66" r:id="rId21" display="http://www.opengl.org/registry/specs/ARB/arrays_of_arrays.txt"/>
+    <hyperlink ref="A62" r:id="rId22" display="http://www.opengl.org/registry/specs/KHR/debug.txt"/>
+    <hyperlink ref="A48" r:id="rId23" display="http://www.opengl.org/registry/specs/ARB/texture_buffer_range.txt"/>
+    <hyperlink ref="A72" r:id="rId24" display="http://www.opengl.org/registry/specs/ARB/texture_storage.txt"/>
+    <hyperlink ref="A73" r:id="rId25" display="http://www.opengl.org/registry/specs/ARB/shading_language_packing.txt"/>
+    <hyperlink ref="A75" r:id="rId26" display="http://www.opengl.org/registry/specs/ARB/shader_image_load_store.txt"/>
+    <hyperlink ref="A76" r:id="rId27" display="http://www.opengl.org/registry/specs/ARB/shader_atomic_counters.txt"/>
+    <hyperlink ref="A77" r:id="rId28" display="http://www.opengl.org/registry/specs/ARB/map_buffer_alignment.txt"/>
+    <hyperlink ref="A78" r:id="rId29" display="http://www.opengl.org/registry/specs/ARB/internalformat_query.txt"/>
+    <hyperlink ref="A79" r:id="rId30" display="http://www.opengl.org/registry/specs/ARB/conservative_depth.txt"/>
+    <hyperlink ref="A80" r:id="rId31" display="http://www.opengl.org/registry/specs/ARB/compressed_texture_pixel_storage.txt"/>
+    <hyperlink ref="A70" r:id="rId32" display="http://www.opengl.org/registry/specs/ARB/transform_feedback_instanced.txt"/>
+    <hyperlink ref="A74" r:id="rId33" display="http://www.opengl.org/registry/specs/ARB/shading_language_420pack.txt"/>
+    <hyperlink ref="A81" r:id="rId34" display="http://www.opengl.org/registry/specs/ARB/base_instance.txt"/>
+    <hyperlink ref="A22" r:id="rId35" display="http://www.opengl.org/registry/specs/ARB/shader_stencil_export.txt"/>
+    <hyperlink ref="A17" r:id="rId36" display="http://www.opengl.org/registry/specs/ARB/robustness.txt"/>
+    <hyperlink ref="A36" r:id="rId37" display="http://www.opengl.org/registry/specs/ARB/debug_output.txt"/>
+    <hyperlink ref="A38" r:id="rId38" display="http://www.opengl.org/registry/specs/ARB/cl_event.txt"/>
+    <hyperlink ref="A85" r:id="rId39" display="http://www.opengl.org/registry/specs/ARB/viewport_array.txt"/>
+    <hyperlink ref="A86" r:id="rId40" display="http://www.opengl.org/registry/specs/ARB/vertex_attrib_64bit.txt"/>
+    <hyperlink ref="A87" r:id="rId41" display="http://www.opengl.org/registry/specs/ARB/shader_precision.txt"/>
+    <hyperlink ref="A88" r:id="rId42" display="http://www.opengl.org/registry/specs/ARB/separate_shader_objects.txt"/>
+    <hyperlink ref="A89" r:id="rId43" display="http://www.opengl.org/registry/specs/ARB/get_program_binary.txt"/>
+    <hyperlink ref="A90" r:id="rId44" display="http://www.opengl.org/registry/specs/ARB/ES2_compatibility.txt"/>
+    <hyperlink ref="A94" r:id="rId45" display="http://www.opengl.org/registry/specs/ARB/transform_feedback3.txt"/>
+    <hyperlink ref="A95" r:id="rId46" display="http://www.opengl.org/registry/specs/ARB/transform_feedback2.txt"/>
+    <hyperlink ref="A99" r:id="rId47" display="http://www.opengl.org/registry/specs/ARB/texture_buffer_object_rgb32.txt"/>
+    <hyperlink ref="A100" r:id="rId48" display="http://www.opengl.org/registry/specs/ARB/tessellation_shader.txt"/>
+    <hyperlink ref="A101" r:id="rId49" display="http://www.opengl.org/registry/specs/ARB/shader_subroutine.txt"/>
+    <hyperlink ref="A104" r:id="rId50" display="http://www.opengl.org/registry/specs/ARB/gpu_shader_fp64.txt"/>
+    <hyperlink ref="A103" r:id="rId51" display="http://www.opengl.org/registry/specs/ARB/gpu_shader5.txt"/>
+    <hyperlink ref="A105" r:id="rId52" display="http://www.opengl.org/registry/specs/ARB/draw_indirect.txt"/>
+    <hyperlink ref="A110" r:id="rId53" display="http://www.opengl.org/registry/specs/ARB/vertex_type_2_10_10_10_rev.txt"/>
+    <hyperlink ref="A111" r:id="rId54" display="http://www.opengl.org/registry/specs/ARB/timer_query.txt"/>
+    <hyperlink ref="A112" r:id="rId55" display="http://www.opengl.org/registry/specs/ARB/texture_swizzle.txt"/>
+    <hyperlink ref="A113" r:id="rId56" display="http://www.opengl.org/registry/specs/ARB/texture_rgb10_a2ui.txt"/>
+    <hyperlink ref="A114" r:id="rId57" display="http://www.opengl.org/registry/specs/ARB/shader_bit_encoding.txt"/>
+    <hyperlink ref="A115" r:id="rId58" display="http://www.opengl.org/registry/specs/ARB/sampler_objects.txt"/>
+    <hyperlink ref="A116" r:id="rId59" display="http://www.opengl.org/registry/specs/ARB/occlusion_query2.txt"/>
+    <hyperlink ref="A118" r:id="rId60" display="http://www.opengl.org/registry/specs/ARB/explicit_attrib_location.txt"/>
+    <hyperlink ref="A119" r:id="rId61" display="http://www.opengl.org/registry/specs/ARB/blend_func_extended.txt"/>
+    <hyperlink ref="A71" r:id="rId62" display="http://www.opengl.org/registry/specs/ARB/texture_compression_bptc.txt"/>
+    <hyperlink ref="A20" r:id="rId63" display="http://www.opengl.org/registry/specs/ARB/shading_language_include.txt"/>
+    <hyperlink ref="A96" r:id="rId64" display="http://www.opengl.org/registry/specs/ARB/texture_query_lod.txt"/>
+    <hyperlink ref="A97" r:id="rId65" display="http://www.opengl.org/registry/specs/ARB/texture_gather.txt"/>
+    <hyperlink ref="A98" r:id="rId66" display="http://www.opengl.org/registry/specs/ARB/texture_cube_map_array.txt"/>
+    <hyperlink ref="A102" r:id="rId67" display="http://www.opengl.org/registry/specs/ARB/sample_shading.txt"/>
+    <hyperlink ref="A106" r:id="rId68" display="http://www.opengl.org/registry/specs/ARB/draw_buffers_blend.txt"/>
+    <hyperlink ref="A123" r:id="rId69" display="http://www.opengl.org/registry/specs/ARB/vertex_array_bgra.txt"/>
+    <hyperlink ref="A124" r:id="rId70" display="http://www.opengl.org/registry/specs/ARB/texture_multisample.txt"/>
+    <hyperlink ref="A125" r:id="rId71" display="http://www.opengl.org/registry/specs/ARB/sync.txt"/>
+    <hyperlink ref="A126" r:id="rId72" display="http://www.opengl.org/registry/specs/ARB/seamless_cube_map.txt"/>
+    <hyperlink ref="A127" r:id="rId73" display="http://www.opengl.org/registry/specs/ARB/provoking_vertex.txt"/>
+    <hyperlink ref="A131" r:id="rId74" display="http://www.opengl.org/registry/specs/ARB/draw_elements_base_vertex.txt"/>
+    <hyperlink ref="A129" r:id="rId75" display="http://www.opengl.org/registry/specs/ARB/fragment_coord_conventions.txt"/>
+    <hyperlink ref="A141" r:id="rId76" display="http://www.opengl.org/registry/specs/ARB/copy_buffer.txt"/>
+    <hyperlink ref="A142" r:id="rId77" display="http://www.opengl.org/registry/specs/ARB/compatibility.txt"/>
+    <hyperlink ref="A135" r:id="rId78" display="http://www.opengl.org/registry/specs/ARB/uniform_buffer_object.txt"/>
+    <hyperlink ref="A146" r:id="rId79" display="http://www.opengl.org/registry/specs/ARB/vertex_array_object.txt"/>
+    <hyperlink ref="A148" r:id="rId80" display="http://www.opengl.org/registry/specs/ARB/texture_rg.txt"/>
+    <hyperlink ref="A152" r:id="rId81" display="http://www.opengl.org/registry/specs/ARB/texture_compression_rgtc.txt"/>
+    <hyperlink ref="A138" r:id="rId82" display="http://www.opengl.org/registry/specs/ARB/texture_buffer_object.txt"/>
+    <hyperlink ref="A156" r:id="rId83" display="http://www.opengl.org/registry/specs/ARB/map_buffer_range.txt"/>
+    <hyperlink ref="A117" r:id="rId84" display="http://www.opengl.org/registry/specs/ARB/instanced_arrays.txt"/>
+    <hyperlink ref="A157" r:id="rId85" display="http://www.opengl.org/registry/specs/ARB/half_float_vertex.txt"/>
+    <hyperlink ref="A128" r:id="rId86" display="http://www.opengl.org/registry/specs/ARB/geometry_shader4.txt"/>
+    <hyperlink ref="A160" r:id="rId87" display="http://www.opengl.org/registry/specs/ARB/framebuffer_sRGB.txt"/>
+    <hyperlink ref="A161" r:id="rId88" display="http://www.opengl.org/registry/specs/ARB/framebuffer_object.txt"/>
+    <hyperlink ref="A140" r:id="rId89" display="http://www.opengl.org/registry/specs/ARB/draw_instanced.txt"/>
+    <hyperlink ref="A162" r:id="rId90" display="http://www.opengl.org/registry/specs/ARB/depth_buffer_float.txt"/>
+    <hyperlink ref="A169" r:id="rId91" display="http://www.opengl.org/registry/specs/ARB/pixel_buffer_object.txt"/>
+    <hyperlink ref="A151" r:id="rId92" display="http://www.opengl.org/registry/specs/ARB/texture_float.txt"/>
+    <hyperlink ref="A158" r:id="rId93" display="http://www.opengl.org/registry/specs/ARB/half_float_pixel.txt"/>
+    <hyperlink ref="A164" r:id="rId94" display="http://www.opengl.org/registry/specs/ARB/color_buffer_float.txt"/>
+    <hyperlink ref="A137" r:id="rId95" display="http://www.opengl.org/registry/specs/ARB/texture_rectangle.txt"/>
+    <hyperlink ref="A180" r:id="rId96" display="http://www.opengl.org/registry/specs/ARB/draw_buffers.txt"/>
+    <hyperlink ref="A174" r:id="rId97" display="http://www.opengl.org/registry/specs/ARB/texture_non_power_of_two.txt"/>
+    <hyperlink ref="A176" r:id="rId98" display="http://www.opengl.org/registry/specs/ARB/shading_language_100.txt"/>
+    <hyperlink ref="A179" r:id="rId99" display="http://www.opengl.org/registry/specs/ARB/fragment_shader.txt"/>
+    <hyperlink ref="A173" r:id="rId100" display="http://www.opengl.org/registry/specs/ARB/vertex_shader.txt"/>
+    <hyperlink ref="A177" r:id="rId101" display="http://www.opengl.org/registry/specs/ARB/shader_objects.txt"/>
+    <hyperlink ref="A181" r:id="rId102" display="http://www.opengl.org/registry/specs/EXT/blend_equation_separate.txt"/>
+    <hyperlink ref="A175" r:id="rId103" display="http://www.opengl.org/registry/specs/EXT/stencil_two_side.txt"/>
+    <hyperlink ref="A163" r:id="rId104" display="http://www.opengl.org/registry/specs/NV/conditional_render.txt"/>
+    <hyperlink ref="A150" r:id="rId105" display="http://www.opengl.org/registry/specs/EXT/texture_integer.txt"/>
+    <hyperlink ref="A153" r:id="rId106" display="http://www.opengl.org/registry/specs/EXT/texture_array.txt"/>
+    <hyperlink ref="A155" r:id="rId107" display="http://www.opengl.org/registry/specs/EXT/packed_depth_stencil.txt"/>
+    <hyperlink ref="A154" r:id="rId108" display="http://www.opengl.org/registry/specs/EXT/packed_float.txt"/>
+    <hyperlink ref="A149" r:id="rId109" display="http://www.opengl.org/registry/specs/EXT/texture_shared_exponent.txt"/>
+    <hyperlink ref="A159" r:id="rId110" display="http://www.opengl.org/registry/specs/EXT/gpu_shader4.txt"/>
+    <hyperlink ref="A147" r:id="rId111" display="http://www.opengl.org/registry/specs/EXT/transform_feedback.txt"/>
+    <hyperlink ref="A139" r:id="rId112" display="http://www.opengl.org/registry/specs/NV/primitive_restart.txt"/>
+    <hyperlink ref="A136" r:id="rId113" display="http://www.opengl.org/registry/specs/EXT/texture_snorm.txt"/>
+    <hyperlink ref="A16" r:id="rId114" display="http://www.opengl.org/registry/specs/EXT/texture_mirror_clamp.txt"/>
+    <hyperlink ref="A26" r:id="rId115" display="http://www.opengl.org/registry/specs/AMD/seamless_cubemap_per_texture.txt"/>
+    <hyperlink ref="A12" r:id="rId116" display="http://www.opengl.org/registry/specs/AMD/transform_feedback3_lines_triangles.txt"/>
+    <hyperlink ref="A27" r:id="rId117" display="http://www.opengl.org/registry/specs/AMD/sample_positions.txt"/>
+    <hyperlink ref="A15" r:id="rId118" display="http://www.opengl.org/registry/specs/NV/texture_multisample.txt"/>
+    <hyperlink ref="A13" r:id="rId119" display="http://www.opengl.org/registry/specs/EXT/texture_sRGB_decode.txt"/>
+    <hyperlink ref="A31" r:id="rId120" display="http://www.opengl.org/registry/specs/INTEL/map_texture.txt"/>
+    <hyperlink ref="A21" r:id="rId121" display="http://www.opengl.org/registry/specs/AMD/shader_trinary_minmax.txt"/>
+    <hyperlink ref="A19" r:id="rId122" display="http://www.opengl.org/registry/specs/AMD/sparse_texture.txt"/>
+    <hyperlink ref="A28" r:id="rId123" display="http://www.opengl.org/registry/specs/AMD/query_buffer_object.txt"/>
+    <hyperlink ref="A25" r:id="rId124" display="http://www.opengl.org/registry/specs/NV/shader_atomic_float.txt"/>
+    <hyperlink ref="A40" r:id="rId125" display="http://www.opengl.org/registry/specs/NV/bindless_texture.txt"/>
+    <hyperlink ref="A10" r:id="rId126" display="http://www.opengl.org/registry/specs/AMD/vertex_shader_layer.txt"/>
+    <hyperlink ref="A9" r:id="rId127" display="http://www.opengl.org/registry/specs/AMD/vertex_shader_viewport_index.txt"/>
+    <hyperlink ref="A18" r:id="rId128" display="http://www.opengl.org/registry/specs/AMD/stencil_operation_extended.txt"/>
+    <hyperlink ref="A29" r:id="rId129" display="http://www.opengl.org/registry/specs/AMD/pinned_memory.txt"/>
+    <hyperlink ref="A23" r:id="rId130" display="http://www.opengl.org/registry/specs/NV/shader_buffer_store.txt"/>
+    <hyperlink ref="A24" r:id="rId131" display="http://www.opengl.org/registry/specs/NV/shader_buffer_load.txt"/>
+    <hyperlink ref="A11" r:id="rId132" display="http://www.opengl.org/registry/specs/NV/vertex_buffer_unified_memory.txt"/>
+    <hyperlink ref="A37" r:id="rId133" display="http://www.opengl.org/registry/specs/NV/copy_image.txt"/>
+    <hyperlink ref="A33" r:id="rId134" display="http://www.opengl.org/registry/specs/NV/explicit_multisample.txt"/>
+    <hyperlink ref="A34" r:id="rId135" display="http://www.opengl.org/registry/specs/EXT/direct_state_access.txt"/>
+    <hyperlink ref="A39" r:id="rId136" display="http://www.opengl.org/registry/specs/AMD/blend_minmax_factor.txt"/>
+    <hyperlink ref="A32" r:id="rId137" display="http://www.opengl.org/registry/specs/EXT/framebuffer_multisample_blit_scaled.txt"/>
+    <hyperlink ref="A30" r:id="rId138" display="http://www.opengl.org/registry/specs/NV/multisample_coverage.txt"/>
+    <hyperlink ref="A2" r:id="rId139" display="http://www.g-truc.net"/>
+    <hyperlink ref="A35" r:id="rId140" display="http://www.opengl.org/registry/specs/EXT/depth_bounds_test.txt"/>
+  </hyperlinks>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId141"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N180"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D100" sqref="D100"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1087,105 +9112,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="31" t="s">
         <v>170</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24" t="s">
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
       <c r="M4" s="23" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30" t="s">
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="29" t="s">
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="25" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="B6" s="32">
+      <c r="B6" s="29">
         <v>41261</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="32">
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="29">
         <v>41250</v>
       </c>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="31">
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="27">
         <v>41259</v>
       </c>
     </row>
@@ -4157,51 +12182,51 @@
         <v>123</v>
       </c>
       <c r="B80" s="6">
-        <f>COUNTIF(B$68:B$79,"V") / (COUNTIF(B$68:B$79,"V") + COUNTIF(B$68:B$79,"X"))</f>
+        <f t="shared" ref="B80:H80" si="2">COUNTIF(B$68:B$79,"V") / (COUNTIF(B$68:B$79,"V") + COUNTIF(B$68:B$79,"X"))</f>
         <v>0.58333333333333337</v>
       </c>
       <c r="C80" s="6">
-        <f>COUNTIF(C$68:C$79,"V") / (COUNTIF(C$68:C$79,"V") + COUNTIF(C$68:C$79,"X"))</f>
+        <f t="shared" si="2"/>
         <v>0.58333333333333337</v>
       </c>
       <c r="D80" s="6">
-        <f>COUNTIF(D$68:D$79,"V") / (COUNTIF(D$68:D$79,"V") + COUNTIF(D$68:D$79,"X"))</f>
+        <f t="shared" si="2"/>
         <v>0.58333333333333337</v>
       </c>
       <c r="E80" s="6">
-        <f>COUNTIF(E$68:E$79,"V") / (COUNTIF(E$68:E$79,"V") + COUNTIF(E$68:E$79,"X"))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F80" s="6">
-        <f>COUNTIF(F$68:F$79,"V") / (COUNTIF(F$68:F$79,"V") + COUNTIF(F$68:F$79,"X"))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G80" s="6">
-        <f>COUNTIF(G$68:G$79,"V") / (COUNTIF(G$68:G$79,"V") + COUNTIF(G$68:G$79,"X"))</f>
+        <f t="shared" si="2"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="H80" s="6">
-        <f>COUNTIF(H$68:H$79,"V") / (COUNTIF(H$68:H$79,"V") + COUNTIF(H$68:H$79,"X"))</f>
+        <f t="shared" si="2"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="I80" s="6">
-        <f t="shared" ref="I80:M80" si="2">COUNTIF(I$68:I$79,"V") / (COUNTIF(I$68:I$79,"V") + COUNTIF(I$68:I$79,"X"))</f>
+        <f t="shared" ref="I80:M80" si="3">COUNTIF(I$68:I$79,"V") / (COUNTIF(I$68:I$79,"V") + COUNTIF(I$68:I$79,"X"))</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="J80" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K80" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L80" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="M80" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.41666666666666669</v>
       </c>
     </row>
@@ -4512,51 +12537,51 @@
         <v>123</v>
       </c>
       <c r="B89" s="6">
-        <f>COUNTIF(B$83:B$88,"V") / (COUNTIF(B$83:B$88,"V") + COUNTIF(B$83:B$88,"X"))</f>
+        <f t="shared" ref="B89:H89" si="4">COUNTIF(B$83:B$88,"V") / (COUNTIF(B$83:B$88,"V") + COUNTIF(B$83:B$88,"X"))</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="C89" s="6">
-        <f>COUNTIF(C$83:C$88,"V") / (COUNTIF(C$83:C$88,"V") + COUNTIF(C$83:C$88,"X"))</f>
+        <f t="shared" si="4"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="D89" s="6">
-        <f>COUNTIF(D$83:D$88,"V") / (COUNTIF(D$83:D$88,"V") + COUNTIF(D$83:D$88,"X"))</f>
+        <f t="shared" si="4"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="E89" s="6">
-        <f>COUNTIF(E$83:E$88,"V") / (COUNTIF(E$83:E$88,"V") + COUNTIF(E$83:E$88,"X"))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F89" s="6">
-        <f>COUNTIF(F$83:F$88,"V") / (COUNTIF(F$83:F$88,"V") + COUNTIF(F$83:F$88,"X"))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="G89" s="6">
-        <f>COUNTIF(G$83:G$88,"V") / (COUNTIF(G$83:G$88,"V") + COUNTIF(G$83:G$88,"X"))</f>
+        <f t="shared" si="4"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="H89" s="6">
-        <f>COUNTIF(H$83:H$88,"V") / (COUNTIF(H$83:H$88,"V") + COUNTIF(H$83:H$88,"X"))</f>
+        <f t="shared" si="4"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="I89" s="6">
-        <f t="shared" ref="I89:M89" si="3">COUNTIF(I$83:I$88,"V") / (COUNTIF(I$83:I$88,"V") + COUNTIF(I$83:I$88,"X"))</f>
+        <f t="shared" ref="I89:M89" si="5">COUNTIF(I$83:I$88,"V") / (COUNTIF(I$83:I$88,"V") + COUNTIF(I$83:I$88,"X"))</f>
         <v>0.83333333333333337</v>
       </c>
       <c r="J89" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="K89" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="L89" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="M89" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.16666666666666666</v>
       </c>
     </row>
@@ -5154,51 +13179,51 @@
         <v>123</v>
       </c>
       <c r="B105" s="21">
-        <f>COUNTIF(B$92:B$104,"V") / (COUNTIF(B$92:B$104,"V") + COUNTIF(B$92:B$104,"X"))</f>
+        <f t="shared" ref="B105:H105" si="6">COUNTIF(B$92:B$104,"V") / (COUNTIF(B$92:B$104,"V") + COUNTIF(B$92:B$104,"X"))</f>
         <v>0</v>
       </c>
       <c r="C105" s="21">
-        <f>COUNTIF(C$92:C$104,"V") / (COUNTIF(C$92:C$104,"V") + COUNTIF(C$92:C$104,"X"))</f>
+        <f t="shared" si="6"/>
         <v>7.6923076923076927E-2</v>
       </c>
       <c r="D105" s="21">
-        <f>COUNTIF(D$92:D$104,"V") / (COUNTIF(D$92:D$104,"V") + COUNTIF(D$92:D$104,"X"))</f>
+        <f t="shared" si="6"/>
         <v>0.46153846153846156</v>
       </c>
       <c r="E105" s="21">
-        <f>COUNTIF(E$92:E$104,"V") / (COUNTIF(E$92:E$104,"V") + COUNTIF(E$92:E$104,"X"))</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="F105" s="21">
-        <f>COUNTIF(F$92:F$104,"V") / (COUNTIF(F$92:F$104,"V") + COUNTIF(F$92:F$104,"X"))</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G105" s="21">
-        <f>COUNTIF(G$92:G$104,"V") / (COUNTIF(G$92:G$104,"V") + COUNTIF(G$92:G$104,"X"))</f>
+        <f t="shared" si="6"/>
         <v>0.30769230769230771</v>
       </c>
       <c r="H105" s="21">
-        <f>COUNTIF(H$92:H$104,"V") / (COUNTIF(H$92:H$104,"V") + COUNTIF(H$92:H$104,"X"))</f>
+        <f t="shared" si="6"/>
         <v>0.53846153846153844</v>
       </c>
       <c r="I105" s="21">
-        <f t="shared" ref="I105:M105" si="4">COUNTIF(I$92:I$104,"V") / (COUNTIF(I$92:I$104,"V") + COUNTIF(I$92:I$104,"X"))</f>
+        <f t="shared" ref="I105:M105" si="7">COUNTIF(I$92:I$104,"V") / (COUNTIF(I$92:I$104,"V") + COUNTIF(I$92:I$104,"X"))</f>
         <v>0.61538461538461542</v>
       </c>
       <c r="J105" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K105" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="L105" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="M105" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -5673,51 +13698,51 @@
         <v>123</v>
       </c>
       <c r="B118" s="21">
-        <f>COUNTIF(B$108:B$117,"V") / (COUNTIF(B$108:B$117,"V") + COUNTIF(B$108:B$117,"X"))</f>
+        <f t="shared" ref="B118:H118" si="8">COUNTIF(B$108:B$117,"V") / (COUNTIF(B$108:B$117,"V") + COUNTIF(B$108:B$117,"X"))</f>
         <v>1</v>
       </c>
       <c r="C118" s="21">
-        <f>COUNTIF(C$108:C$117,"V") / (COUNTIF(C$108:C$117,"V") + COUNTIF(C$108:C$117,"X"))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="D118" s="21">
-        <f>COUNTIF(D$108:D$117,"V") / (COUNTIF(D$108:D$117,"V") + COUNTIF(D$108:D$117,"X"))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E118" s="21">
-        <f>COUNTIF(E$108:E$117,"V") / (COUNTIF(E$108:E$117,"V") + COUNTIF(E$108:E$117,"X"))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="F118" s="21">
-        <f>COUNTIF(F$108:F$117,"V") / (COUNTIF(F$108:F$117,"V") + COUNTIF(F$108:F$117,"X"))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="G118" s="21">
-        <f>COUNTIF(G$108:G$117,"V") / (COUNTIF(G$108:G$117,"V") + COUNTIF(G$108:G$117,"X"))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H118" s="21">
-        <f>COUNTIF(H$108:H$117,"V") / (COUNTIF(H$108:H$117,"V") + COUNTIF(H$108:H$117,"X"))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="I118" s="21">
-        <f t="shared" ref="I118:M118" si="5">COUNTIF(I$108:I$117,"V") / (COUNTIF(I$108:I$117,"V") + COUNTIF(I$108:I$117,"X"))</f>
+        <f t="shared" ref="I118:M118" si="9">COUNTIF(I$108:I$117,"V") / (COUNTIF(I$108:I$117,"V") + COUNTIF(I$108:I$117,"X"))</f>
         <v>1</v>
       </c>
       <c r="J118" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="K118" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="L118" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="M118" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -6151,51 +14176,51 @@
         <v>123</v>
       </c>
       <c r="B130" s="21">
-        <f>COUNTIF(B$121:B$129,"V") / (COUNTIF(B$121:B$129,"V") + COUNTIF(B$121:B$129,"X"))</f>
+        <f t="shared" ref="B130:H130" si="10">COUNTIF(B$121:B$129,"V") / (COUNTIF(B$121:B$129,"V") + COUNTIF(B$121:B$129,"X"))</f>
         <v>1</v>
       </c>
       <c r="C130" s="21">
-        <f>COUNTIF(C$121:C$129,"V") / (COUNTIF(C$121:C$129,"V") + COUNTIF(C$121:C$129,"X"))</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="D130" s="21">
-        <f>COUNTIF(D$121:D$129,"V") / (COUNTIF(D$121:D$129,"V") + COUNTIF(D$121:D$129,"X"))</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E130" s="21">
-        <f>COUNTIF(E$121:E$129,"V") / (COUNTIF(E$121:E$129,"V") + COUNTIF(E$121:E$129,"X"))</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="F130" s="21">
-        <f>COUNTIF(F$121:F$129,"V") / (COUNTIF(F$121:F$129,"V") + COUNTIF(F$121:F$129,"X"))</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="G130" s="21">
-        <f>COUNTIF(G$121:G$129,"V") / (COUNTIF(G$121:G$129,"V") + COUNTIF(G$121:G$129,"X"))</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H130" s="21">
-        <f>COUNTIF(H$121:H$129,"V") / (COUNTIF(H$121:H$129,"V") + COUNTIF(H$121:H$129,"X"))</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="I130" s="21">
-        <f t="shared" ref="I130:M130" si="6">COUNTIF(I$121:I$129,"V") / (COUNTIF(I$121:I$129,"V") + COUNTIF(I$121:I$129,"X"))</f>
+        <f t="shared" ref="I130:M130" si="11">COUNTIF(I$121:I$129,"V") / (COUNTIF(I$121:I$129,"V") + COUNTIF(I$121:I$129,"X"))</f>
         <v>1</v>
       </c>
       <c r="J130" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="K130" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="L130" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="M130" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -6588,51 +14613,51 @@
         <v>123</v>
       </c>
       <c r="B141" s="21">
-        <f>COUNTIF(B$133:B$140,"V") / (COUNTIF(B$133:B$140,"V") + COUNTIF(B$133:B$140,"X"))</f>
+        <f t="shared" ref="B141:H141" si="12">COUNTIF(B$133:B$140,"V") / (COUNTIF(B$133:B$140,"V") + COUNTIF(B$133:B$140,"X"))</f>
         <v>1</v>
       </c>
       <c r="C141" s="21">
-        <f>COUNTIF(C$133:C$140,"V") / (COUNTIF(C$133:C$140,"V") + COUNTIF(C$133:C$140,"X"))</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="D141" s="21">
-        <f>COUNTIF(D$133:D$140,"V") / (COUNTIF(D$133:D$140,"V") + COUNTIF(D$133:D$140,"X"))</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="E141" s="21">
-        <f>COUNTIF(E$133:E$140,"V") / (COUNTIF(E$133:E$140,"V") + COUNTIF(E$133:E$140,"X"))</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="F141" s="21">
-        <f>COUNTIF(F$133:F$140,"V") / (COUNTIF(F$133:F$140,"V") + COUNTIF(F$133:F$140,"X"))</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G141" s="21">
-        <f>COUNTIF(G$133:G$140,"V") / (COUNTIF(G$133:G$140,"V") + COUNTIF(G$133:G$140,"X"))</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="H141" s="21">
-        <f>COUNTIF(H$133:H$140,"V") / (COUNTIF(H$133:H$140,"V") + COUNTIF(H$133:H$140,"X"))</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="I141" s="21">
-        <f t="shared" ref="I141:M141" si="7">COUNTIF(I$133:I$140,"V") / (COUNTIF(I$133:I$140,"V") + COUNTIF(I$133:I$140,"X"))</f>
+        <f t="shared" ref="I141:M141" si="13">COUNTIF(I$133:I$140,"V") / (COUNTIF(I$133:I$140,"V") + COUNTIF(I$133:I$140,"X"))</f>
         <v>1</v>
       </c>
       <c r="J141" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="K141" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="L141" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="M141" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
@@ -7480,47 +15505,47 @@
         <v>1</v>
       </c>
       <c r="C163" s="21">
-        <f>COUNTIF(C$144:C$162,"V") / (COUNTIF(C$144:C$162,"V") + COUNTIF(C$144:C$162,"X"))</f>
+        <f t="shared" ref="C163:H163" si="14">COUNTIF(C$144:C$162,"V") / (COUNTIF(C$144:C$162,"V") + COUNTIF(C$144:C$162,"X"))</f>
         <v>1</v>
       </c>
       <c r="D163" s="21">
-        <f>COUNTIF(D$144:D$162,"V") / (COUNTIF(D$144:D$162,"V") + COUNTIF(D$144:D$162,"X"))</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="E163" s="21">
-        <f>COUNTIF(E$144:E$162,"V") / (COUNTIF(E$144:E$162,"V") + COUNTIF(E$144:E$162,"X"))</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="F163" s="21">
-        <f>COUNTIF(F$144:F$162,"V") / (COUNTIF(F$144:F$162,"V") + COUNTIF(F$144:F$162,"X"))</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="G163" s="21">
-        <f>COUNTIF(G$144:G$162,"V") / (COUNTIF(G$144:G$162,"V") + COUNTIF(G$144:G$162,"X"))</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="H163" s="21">
-        <f>COUNTIF(H$144:H$162,"V") / (COUNTIF(H$144:H$162,"V") + COUNTIF(H$144:H$162,"X"))</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="I163" s="21">
-        <f t="shared" ref="I163:M163" si="8">COUNTIF(I$144:I$162,"V") / (COUNTIF(I$144:I$162,"V") + COUNTIF(I$144:I$162,"X"))</f>
+        <f t="shared" ref="I163:M163" si="15">COUNTIF(I$144:I$162,"V") / (COUNTIF(I$144:I$162,"V") + COUNTIF(I$144:I$162,"X"))</f>
         <v>1</v>
       </c>
       <c r="J163" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="K163" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="L163" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="M163" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -7671,47 +15696,47 @@
         <v>1</v>
       </c>
       <c r="C168" s="21">
-        <f t="shared" ref="C168:M168" si="9">COUNTIF(C$166:C$167,"V") / (COUNTIF(C$166:C$167,"V") + COUNTIF(C$166:C$167,"X"))</f>
+        <f t="shared" ref="C168:M168" si="16">COUNTIF(C$166:C$167,"V") / (COUNTIF(C$166:C$167,"V") + COUNTIF(C$166:C$167,"X"))</f>
         <v>1</v>
       </c>
       <c r="D168" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="E168" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F168" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="G168" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="H168" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="I168" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="J168" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="K168" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="L168" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="M168" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
     </row>
@@ -8149,47 +16174,47 @@
         <v>1</v>
       </c>
       <c r="C180" s="21">
-        <f t="shared" ref="C180:M180" si="10">COUNTIF(C$171:C$179,"V") / (COUNTIF(C$171:C$179,"V") + COUNTIF(C$171:C$179,"X"))</f>
+        <f t="shared" ref="C180:M180" si="17">COUNTIF(C$171:C$179,"V") / (COUNTIF(C$171:C$179,"V") + COUNTIF(C$171:C$179,"X"))</f>
         <v>1</v>
       </c>
       <c r="D180" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="E180" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="F180" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="G180" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="H180" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="I180" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="J180" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="K180" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="L180" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="M180" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>

--- a/doc/OpenGL matrix.xlsx
+++ b/doc/OpenGL matrix.xlsx
@@ -4463,6 +4463,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -9650,8 +9651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="Q143" sqref="Q143"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12056,10 +12057,10 @@
       <c r="D74" s="64" t="s">
         <v>163</v>
       </c>
-      <c r="E74" s="64" t="s">
-        <v>163</v>
-      </c>
-      <c r="F74" s="63" t="s">
+      <c r="E74" s="65" t="s">
+        <v>138</v>
+      </c>
+      <c r="F74" s="65" t="s">
         <v>138</v>
       </c>
       <c r="G74" s="64" t="s">
@@ -13377,7 +13378,7 @@
       </c>
       <c r="E102" s="6">
         <f t="shared" si="11"/>
-        <v>0.58695652173913049</v>
+        <v>0.60869565217391308</v>
       </c>
       <c r="F102" s="6">
         <f t="shared" si="11"/>
@@ -20431,7 +20432,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O230"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>

--- a/doc/OpenGL matrix.xlsx
+++ b/doc/OpenGL matrix.xlsx
@@ -201,7 +201,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17005" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17005" uniqueCount="276">
   <si>
     <t>Fermi</t>
   </si>
@@ -1013,9 +1013,6 @@
     <t>OpenGL Matrix - November 2013</t>
   </si>
   <si>
-    <t>13.10 beta 1</t>
-  </si>
-  <si>
     <t>331.10 beta</t>
   </si>
   <si>
@@ -1023,6 +1020,15 @@
   </si>
   <si>
     <t>HSW</t>
+  </si>
+  <si>
+    <t>git-10.0</t>
+  </si>
+  <si>
+    <t>10.9</t>
+  </si>
+  <si>
+    <t>13.11 beta 8</t>
   </si>
 </sst>
 </file>
@@ -2742,7 +2748,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2857142857142857</c:v>
+                  <c:v>0.38095238095238093</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.58333333333333337</c:v>
@@ -2757,7 +2763,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.88888888888888884</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1</c:v>
@@ -2890,11 +2896,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="559339520"/>
-        <c:axId val="130784576"/>
+        <c:axId val="103148544"/>
+        <c:axId val="56925504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="559339520"/>
+        <c:axId val="103148544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2903,7 +2909,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="130784576"/>
+        <c:crossAx val="56925504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2911,7 +2917,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="130784576"/>
+        <c:axId val="56925504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2923,7 +2929,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="559339520"/>
+        <c:crossAx val="103148544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4458,11 +4464,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="561544704"/>
-        <c:axId val="560095808"/>
+        <c:axId val="106549760"/>
+        <c:axId val="103031360"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="561544704"/>
+        <c:axId val="106549760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4471,7 +4477,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="560095808"/>
+        <c:crossAx val="103031360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4479,7 +4485,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="560095808"/>
+        <c:axId val="103031360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4491,7 +4497,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="561544704"/>
+        <c:crossAx val="106549760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6025,11 +6031,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="561717760"/>
-        <c:axId val="560101568"/>
+        <c:axId val="107353600"/>
+        <c:axId val="103037120"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="561717760"/>
+        <c:axId val="107353600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6038,7 +6044,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="560101568"/>
+        <c:crossAx val="103037120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6046,7 +6052,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="560101568"/>
+        <c:axId val="103037120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -6058,7 +6064,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="561717760"/>
+        <c:crossAx val="107353600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7592,11 +7598,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="562869760"/>
-        <c:axId val="560102720"/>
+        <c:axId val="107207680"/>
+        <c:axId val="103038272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="562869760"/>
+        <c:axId val="107207680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7605,7 +7611,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="560102720"/>
+        <c:crossAx val="103038272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7613,7 +7619,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="560102720"/>
+        <c:axId val="103038272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -7625,7 +7631,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="562869760"/>
+        <c:crossAx val="107207680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9159,11 +9165,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="563421696"/>
-        <c:axId val="562811968"/>
+        <c:axId val="108758528"/>
+        <c:axId val="107123776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="563421696"/>
+        <c:axId val="108758528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9172,7 +9178,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="562811968"/>
+        <c:crossAx val="107123776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9180,7 +9186,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="562811968"/>
+        <c:axId val="107123776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -9192,7 +9198,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="563421696"/>
+        <c:crossAx val="108758528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10726,11 +10732,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="564172288"/>
-        <c:axId val="562813120"/>
+        <c:axId val="108514304"/>
+        <c:axId val="107124928"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="564172288"/>
+        <c:axId val="108514304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10739,7 +10745,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="562813120"/>
+        <c:crossAx val="107124928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10747,7 +10753,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="562813120"/>
+        <c:axId val="107124928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -10759,7 +10765,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="564172288"/>
+        <c:crossAx val="108514304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11289,8 +11295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A226" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M241" sqref="M241:N241"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10:L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11473,14 +11479,14 @@
         <v>176</v>
       </c>
       <c r="B9" s="75" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C9" s="75"/>
       <c r="D9" s="75"/>
       <c r="E9" s="75"/>
       <c r="F9" s="75"/>
       <c r="G9" s="75" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="H9" s="75"/>
       <c r="I9" s="75"/>
@@ -11494,10 +11500,10 @@
         <v>3277</v>
       </c>
       <c r="O9" s="69" t="s">
-        <v>241</v>
+        <v>273</v>
       </c>
       <c r="P9" s="69" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11512,7 +11518,7 @@
       <c r="E10" s="71"/>
       <c r="F10" s="71"/>
       <c r="G10" s="70">
-        <v>41553</v>
+        <v>41577</v>
       </c>
       <c r="H10" s="71"/>
       <c r="I10" s="71"/>
@@ -11526,10 +11532,10 @@
         <v>41516</v>
       </c>
       <c r="O10" s="66">
-        <v>41363</v>
+        <v>41584</v>
       </c>
       <c r="P10" s="51">
-        <v>41347</v>
+        <v>41569</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -11570,10 +11576,10 @@
         <v>165</v>
       </c>
       <c r="M11" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="N11" s="38" t="s">
         <v>272</v>
-      </c>
-      <c r="N11" s="38" t="s">
-        <v>273</v>
       </c>
       <c r="O11" s="38" t="s">
         <v>218</v>
@@ -11705,7 +11711,7 @@
       </c>
       <c r="O13" s="40">
         <f t="shared" si="1"/>
-        <v>0.2857142857142857</v>
+        <v>0.38095238095238093</v>
       </c>
       <c r="P13" s="40">
         <f t="shared" si="1"/>
@@ -12030,7 +12036,7 @@
       </c>
       <c r="O18" s="40">
         <f t="shared" si="6"/>
-        <v>0.88888888888888884</v>
+        <v>1</v>
       </c>
       <c r="P18" s="40">
         <f t="shared" si="6"/>
@@ -12919,10 +12925,10 @@
         <v>165</v>
       </c>
       <c r="M55" s="33" t="s">
+        <v>271</v>
+      </c>
+      <c r="N55" s="33" t="s">
         <v>272</v>
-      </c>
-      <c r="N55" s="33" t="s">
-        <v>273</v>
       </c>
       <c r="O55" s="33" t="s">
         <v>218</v>
@@ -15352,10 +15358,10 @@
         <v>165</v>
       </c>
       <c r="M104" s="33" t="s">
+        <v>271</v>
+      </c>
+      <c r="N104" s="33" t="s">
         <v>272</v>
-      </c>
-      <c r="N104" s="33" t="s">
-        <v>273</v>
       </c>
       <c r="O104" s="33" t="s">
         <v>218</v>
@@ -15885,10 +15891,10 @@
         <v>165</v>
       </c>
       <c r="M115" s="33" t="s">
+        <v>271</v>
+      </c>
+      <c r="N115" s="33" t="s">
         <v>272</v>
-      </c>
-      <c r="N115" s="33" t="s">
-        <v>273</v>
       </c>
       <c r="O115" s="33" t="s">
         <v>218</v>
@@ -15940,8 +15946,8 @@
       <c r="N116" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="O116" s="4" t="s">
-        <v>163</v>
+      <c r="O116" s="56" t="s">
+        <v>138</v>
       </c>
       <c r="P116" s="4" t="s">
         <v>163</v>
@@ -15990,8 +15996,8 @@
       <c r="N117" s="64" t="s">
         <v>163</v>
       </c>
-      <c r="O117" s="64" t="s">
-        <v>163</v>
+      <c r="O117" s="65" t="s">
+        <v>138</v>
       </c>
       <c r="P117" s="64" t="s">
         <v>163</v>
@@ -17005,7 +17011,7 @@
       </c>
       <c r="O137" s="6">
         <f t="shared" si="13"/>
-        <v>0.2857142857142857</v>
+        <v>0.38095238095238093</v>
       </c>
       <c r="P137" s="6">
         <f t="shared" si="13"/>
@@ -17068,10 +17074,10 @@
         <v>165</v>
       </c>
       <c r="M139" s="33" t="s">
+        <v>271</v>
+      </c>
+      <c r="N139" s="33" t="s">
         <v>272</v>
-      </c>
-      <c r="N139" s="33" t="s">
-        <v>273</v>
       </c>
       <c r="O139" s="33" t="s">
         <v>218</v>
@@ -17801,10 +17807,10 @@
         <v>165</v>
       </c>
       <c r="M154" s="33" t="s">
+        <v>271</v>
+      </c>
+      <c r="N154" s="33" t="s">
         <v>272</v>
-      </c>
-      <c r="N154" s="33" t="s">
-        <v>273</v>
       </c>
       <c r="O154" s="33" t="s">
         <v>218</v>
@@ -18234,10 +18240,10 @@
         <v>165</v>
       </c>
       <c r="M163" s="33" t="s">
+        <v>271</v>
+      </c>
+      <c r="N163" s="33" t="s">
         <v>272</v>
-      </c>
-      <c r="N163" s="33" t="s">
-        <v>273</v>
       </c>
       <c r="O163" s="33" t="s">
         <v>218</v>
@@ -19017,10 +19023,10 @@
         <v>165</v>
       </c>
       <c r="M179" s="33" t="s">
+        <v>271</v>
+      </c>
+      <c r="N179" s="33" t="s">
         <v>272</v>
-      </c>
-      <c r="N179" s="33" t="s">
-        <v>273</v>
       </c>
       <c r="O179" s="33" t="s">
         <v>218</v>
@@ -19650,10 +19656,10 @@
         <v>165</v>
       </c>
       <c r="M192" s="33" t="s">
+        <v>271</v>
+      </c>
+      <c r="N192" s="33" t="s">
         <v>272</v>
-      </c>
-      <c r="N192" s="33" t="s">
-        <v>273</v>
       </c>
       <c r="O192" s="33" t="s">
         <v>218</v>
@@ -19955,8 +19961,8 @@
       <c r="N198" s="63" t="s">
         <v>138</v>
       </c>
-      <c r="O198" s="64" t="s">
-        <v>163</v>
+      <c r="O198" s="65" t="s">
+        <v>138</v>
       </c>
       <c r="P198" s="63" t="s">
         <v>138</v>
@@ -20170,7 +20176,7 @@
       </c>
       <c r="O202" s="21">
         <f t="shared" si="18"/>
-        <v>0.88888888888888884</v>
+        <v>1</v>
       </c>
       <c r="P202" s="21">
         <f t="shared" si="18"/>
@@ -20233,10 +20239,10 @@
         <v>165</v>
       </c>
       <c r="M204" s="33" t="s">
+        <v>271</v>
+      </c>
+      <c r="N204" s="33" t="s">
         <v>272</v>
-      </c>
-      <c r="N204" s="33" t="s">
-        <v>273</v>
       </c>
       <c r="O204" s="33" t="s">
         <v>218</v>
@@ -20716,10 +20722,10 @@
         <v>165</v>
       </c>
       <c r="M214" s="33" t="s">
+        <v>271</v>
+      </c>
+      <c r="N214" s="33" t="s">
         <v>272</v>
-      </c>
-      <c r="N214" s="33" t="s">
-        <v>273</v>
       </c>
       <c r="O214" s="33" t="s">
         <v>218</v>
@@ -21799,10 +21805,10 @@
         <v>165</v>
       </c>
       <c r="M236" s="33" t="s">
+        <v>271</v>
+      </c>
+      <c r="N236" s="33" t="s">
         <v>272</v>
-      </c>
-      <c r="N236" s="33" t="s">
-        <v>273</v>
       </c>
       <c r="O236" s="33" t="s">
         <v>218</v>
@@ -22032,10 +22038,10 @@
         <v>165</v>
       </c>
       <c r="M241" s="33" t="s">
+        <v>271</v>
+      </c>
+      <c r="N241" s="33" t="s">
         <v>272</v>
-      </c>
-      <c r="N241" s="33" t="s">
-        <v>273</v>
       </c>
       <c r="O241" s="33" t="s">
         <v>218</v>
@@ -22744,7 +22750,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O251"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="R129" sqref="R129"/>
     </sheetView>
   </sheetViews>

--- a/doc/OpenGL matrix.xlsx
+++ b/doc/OpenGL matrix.xlsx
@@ -1401,6 +1401,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1419,11 +1420,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1492,9 +1492,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'2013-11'!$A$12:$A$22</c:f>
+              <c:f>'2013-11'!$A$12:$A$21</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>OpenGL 4.4</c:v>
                 </c:pt>
@@ -1524,19 +1524,16 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>OpenGL 2.1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>OpenGL 2.0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2013-11'!$B$12:$B$22</c:f>
+              <c:f>'2013-11'!$B$12:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0.625</c:v>
                 </c:pt>
@@ -1565,9 +1562,6 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1599,9 +1593,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'2013-11'!$A$12:$A$22</c:f>
+              <c:f>'2013-11'!$A$12:$A$21</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>OpenGL 4.4</c:v>
                 </c:pt>
@@ -1631,19 +1625,16 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>OpenGL 2.1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>OpenGL 2.0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2013-11'!$C$12:$C$22</c:f>
+              <c:f>'2013-11'!$C$12:$C$21</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0.625</c:v>
                 </c:pt>
@@ -1672,9 +1663,6 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1703,9 +1691,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'2013-11'!$A$12:$A$22</c:f>
+              <c:f>'2013-11'!$A$12:$A$21</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>OpenGL 4.4</c:v>
                 </c:pt>
@@ -1735,19 +1723,16 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>OpenGL 2.1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>OpenGL 2.0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2013-11'!$D$12:$D$22</c:f>
+              <c:f>'2013-11'!$D$12:$D$21</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0.625</c:v>
                 </c:pt>
@@ -1776,9 +1761,6 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1809,9 +1791,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'2013-11'!$A$12:$A$22</c:f>
+              <c:f>'2013-11'!$A$12:$A$21</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>OpenGL 4.4</c:v>
                 </c:pt>
@@ -1841,19 +1823,16 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>OpenGL 2.1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>OpenGL 2.0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2013-11'!$E$12:$E$22</c:f>
+              <c:f>'2013-11'!$E$12:$E$21</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1882,9 +1861,6 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1915,9 +1891,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'2013-11'!$A$12:$A$22</c:f>
+              <c:f>'2013-11'!$A$12:$A$21</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>OpenGL 4.4</c:v>
                 </c:pt>
@@ -1947,19 +1923,16 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>OpenGL 2.1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>OpenGL 2.0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2013-11'!$F$12:$F$22</c:f>
+              <c:f>'2013-11'!$F$12:$F$21</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1988,9 +1961,6 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -2022,9 +1992,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'2013-11'!$A$12:$A$22</c:f>
+              <c:f>'2013-11'!$A$12:$A$21</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>OpenGL 4.4</c:v>
                 </c:pt>
@@ -2054,19 +2024,16 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>OpenGL 2.1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>OpenGL 2.0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2013-11'!$G$12:$G$22</c:f>
+              <c:f>'2013-11'!$G$12:$G$21</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2095,9 +2062,6 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -2129,9 +2093,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'2013-11'!$A$12:$A$22</c:f>
+              <c:f>'2013-11'!$A$12:$A$21</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>OpenGL 4.4</c:v>
                 </c:pt>
@@ -2161,19 +2125,16 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>OpenGL 2.1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>OpenGL 2.0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2013-11'!$H$12:$H$22</c:f>
+              <c:f>'2013-11'!$H$12:$H$21</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2202,9 +2163,6 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -2236,9 +2194,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'2013-11'!$A$12:$A$22</c:f>
+              <c:f>'2013-11'!$A$12:$A$21</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>OpenGL 4.4</c:v>
                 </c:pt>
@@ -2268,19 +2226,16 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>OpenGL 2.1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>OpenGL 2.0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2013-11'!$I$12:$I$22</c:f>
+              <c:f>'2013-11'!$I$12:$I$21</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2309,9 +2264,6 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -2340,9 +2292,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'2013-11'!$A$12:$A$22</c:f>
+              <c:f>'2013-11'!$A$12:$A$21</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>OpenGL 4.4</c:v>
                 </c:pt>
@@ -2372,19 +2324,16 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>OpenGL 2.1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>OpenGL 2.0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2013-11'!$J$12:$J$22</c:f>
+              <c:f>'2013-11'!$J$12:$J$21</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2413,9 +2362,6 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -2446,9 +2392,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'2013-11'!$A$12:$A$22</c:f>
+              <c:f>'2013-11'!$A$12:$A$21</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>OpenGL 4.4</c:v>
                 </c:pt>
@@ -2478,19 +2424,16 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>OpenGL 2.1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>OpenGL 2.0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2013-11'!$K$12:$K$22</c:f>
+              <c:f>'2013-11'!$K$12:$K$21</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2519,9 +2462,6 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -2552,9 +2492,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'2013-11'!$A$12:$A$22</c:f>
+              <c:f>'2013-11'!$A$12:$A$21</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>OpenGL 4.4</c:v>
                 </c:pt>
@@ -2584,19 +2524,16 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>OpenGL 2.1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>OpenGL 2.0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2013-11'!$L$12:$L$22</c:f>
+              <c:f>'2013-11'!$L$12:$L$21</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2625,9 +2562,6 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -2637,9 +2571,6 @@
         <c:ser>
           <c:idx val="14"/>
           <c:order val="11"/>
-          <c:tx>
-            <c:v>C.I.</c:v>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="411817"/>
@@ -2649,12 +2580,50 @@
             </a:ln>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2013-11'!$A$12:$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>OpenGL 4.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>OpenGL 4.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>OpenGL 4.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>OpenGL 4.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>OpenGL 4.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>OpenGL 3.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>OpenGL 3.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>OpenGL 3.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>OpenGL 3.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>OpenGL 2.1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2013-11'!$M$12:$M$22</c:f>
+              <c:f>'2013-11'!$M$12:$M$21</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2683,9 +2652,6 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -2714,9 +2680,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'2013-11'!$A$12:$A$22</c:f>
+              <c:f>'2013-11'!$A$12:$A$21</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>OpenGL 4.4</c:v>
                 </c:pt>
@@ -2746,19 +2712,16 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>OpenGL 2.1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>OpenGL 2.0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2013-11'!$O$12:$O$22</c:f>
+              <c:f>'2013-11'!$O$12:$O$21</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2787,9 +2750,6 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -2820,9 +2780,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'2013-11'!$A$12:$A$22</c:f>
+              <c:f>'2013-11'!$A$12:$A$21</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>OpenGL 4.4</c:v>
                 </c:pt>
@@ -2852,19 +2812,16 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>OpenGL 2.1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>OpenGL 2.0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2013-11'!$P$12:$P$22</c:f>
+              <c:f>'2013-11'!$P$12:$P$21</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2893,9 +2850,6 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -2926,9 +2880,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'2013-11'!$A$12:$A$22</c:f>
+              <c:f>'2013-11'!$A$12:$A$21</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>OpenGL 4.4</c:v>
                 </c:pt>
@@ -2958,19 +2912,16 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>OpenGL 2.1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>OpenGL 2.0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2013-11'!$Q$12:$Q$22</c:f>
+              <c:f>'2013-11'!$Q$12:$Q$21</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2999,9 +2950,6 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -3017,11 +2965,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="61662720"/>
-        <c:axId val="61097664"/>
+        <c:axId val="73090560"/>
+        <c:axId val="148671296"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="61662720"/>
+        <c:axId val="73090560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3030,7 +2978,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61097664"/>
+        <c:crossAx val="148671296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3038,7 +2986,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61097664"/>
+        <c:axId val="148671296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3050,7 +2998,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61662720"/>
+        <c:crossAx val="73090560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3067,7 +3015,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -4585,11 +4533,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="61663744"/>
-        <c:axId val="61098816"/>
+        <c:axId val="93026816"/>
+        <c:axId val="148673024"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="61663744"/>
+        <c:axId val="93026816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4598,7 +4546,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61098816"/>
+        <c:crossAx val="148673024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4606,7 +4554,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61098816"/>
+        <c:axId val="148673024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4618,7 +4566,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61663744"/>
+        <c:crossAx val="93026816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6152,11 +6100,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="45421568"/>
-        <c:axId val="45876352"/>
+        <c:axId val="92966400"/>
+        <c:axId val="73230016"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="45421568"/>
+        <c:axId val="92966400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6165,7 +6113,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45876352"/>
+        <c:crossAx val="73230016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6173,7 +6121,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="45876352"/>
+        <c:axId val="73230016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -6185,7 +6133,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45421568"/>
+        <c:crossAx val="92966400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7719,11 +7667,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="45616640"/>
-        <c:axId val="45876928"/>
+        <c:axId val="105309184"/>
+        <c:axId val="73231744"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="45616640"/>
+        <c:axId val="105309184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7732,7 +7680,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45876928"/>
+        <c:crossAx val="73231744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7740,7 +7688,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="45876928"/>
+        <c:axId val="73231744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -7752,7 +7700,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45616640"/>
+        <c:crossAx val="105309184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9286,11 +9234,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="46387712"/>
-        <c:axId val="45882688"/>
+        <c:axId val="106627584"/>
+        <c:axId val="105210432"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="46387712"/>
+        <c:axId val="106627584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9299,7 +9247,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45882688"/>
+        <c:crossAx val="105210432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9307,7 +9255,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="45882688"/>
+        <c:axId val="105210432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -9319,7 +9267,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46387712"/>
+        <c:crossAx val="106627584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10853,11 +10801,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="46867968"/>
-        <c:axId val="45998656"/>
+        <c:axId val="106589184"/>
+        <c:axId val="105212160"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="46867968"/>
+        <c:axId val="106589184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10866,7 +10814,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45998656"/>
+        <c:crossAx val="105212160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10874,7 +10822,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="45998656"/>
+        <c:axId val="105212160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -10886,7 +10834,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46867968"/>
+        <c:crossAx val="106589184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10912,13 +10860,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>119061</xdr:colOff>
+      <xdr:colOff>400051</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>628649</xdr:colOff>
+      <xdr:colOff>276226</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
@@ -11416,8 +11364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10:O10"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11436,46 +11384,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="76" t="s">
         <v>269</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="77" t="s">
         <v>169</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="76"/>
-      <c r="O2" s="76"/>
-      <c r="P2" s="76"/>
-      <c r="Q2" s="76"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="77"/>
+      <c r="P2" s="77"/>
+      <c r="Q2" s="77"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="67"/>
@@ -11576,26 +11524,26 @@
       <c r="A8" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="B8" s="74" t="s">
+      <c r="B8" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="74"/>
-      <c r="D8" s="74"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="74" t="s">
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="74"/>
-      <c r="I8" s="74"/>
-      <c r="J8" s="74"/>
-      <c r="K8" s="74"/>
-      <c r="L8" s="74"/>
-      <c r="M8" s="74"/>
-      <c r="N8" s="74" t="s">
+      <c r="H8" s="75"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="75"/>
+      <c r="K8" s="75"/>
+      <c r="L8" s="75"/>
+      <c r="M8" s="75"/>
+      <c r="N8" s="75" t="s">
         <v>171</v>
       </c>
-      <c r="O8" s="74"/>
+      <c r="O8" s="75"/>
       <c r="P8" s="68" t="s">
         <v>218</v>
       </c>
@@ -11607,26 +11555,26 @@
       <c r="A9" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="B9" s="77" t="s">
+      <c r="B9" s="78" t="s">
         <v>270</v>
       </c>
-      <c r="C9" s="77"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="77"/>
-      <c r="G9" s="77" t="s">
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="78" t="s">
         <v>276</v>
       </c>
-      <c r="H9" s="77"/>
-      <c r="I9" s="77"/>
-      <c r="J9" s="77"/>
-      <c r="K9" s="77"/>
-      <c r="L9" s="77"/>
-      <c r="M9" s="77"/>
-      <c r="N9" s="80">
+      <c r="H9" s="78"/>
+      <c r="I9" s="78"/>
+      <c r="J9" s="78"/>
+      <c r="K9" s="78"/>
+      <c r="L9" s="78"/>
+      <c r="M9" s="78"/>
+      <c r="N9" s="79">
         <v>3325</v>
       </c>
-      <c r="O9" s="80"/>
+      <c r="O9" s="79"/>
       <c r="P9" s="69" t="s">
         <v>273</v>
       </c>
@@ -11638,26 +11586,26 @@
       <c r="A10" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="B10" s="72">
+      <c r="B10" s="73">
         <v>41549</v>
       </c>
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="72">
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="73">
         <v>41586</v>
       </c>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
-      <c r="N10" s="72">
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="74"/>
+      <c r="L10" s="74"/>
+      <c r="M10" s="74"/>
+      <c r="N10" s="73">
         <v>41516</v>
       </c>
-      <c r="O10" s="72"/>
+      <c r="O10" s="73"/>
       <c r="P10" s="66">
         <v>41584</v>
       </c>
@@ -12460,10 +12408,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="N22" s="36">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
+      <c r="N22" s="36"/>
       <c r="O22" s="36">
         <f t="shared" si="10"/>
         <v>1</v>
@@ -15585,7 +15530,7 @@
       </c>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A102" s="79" t="s">
+      <c r="A102" s="72" t="s">
         <v>277</v>
       </c>
       <c r="B102" s="64" t="s">
@@ -23667,42 +23612,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="76" t="s">
         <v>245</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="77" t="s">
         <v>169</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="76"/>
-      <c r="O2" s="76"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="77"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="59"/>
@@ -23793,21 +23738,21 @@
       <c r="A8" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="B8" s="74" t="s">
+      <c r="B8" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="74"/>
-      <c r="D8" s="74"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="74" t="s">
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="74"/>
-      <c r="I8" s="74"/>
-      <c r="J8" s="74"/>
-      <c r="K8" s="74"/>
-      <c r="L8" s="74"/>
+      <c r="H8" s="75"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="75"/>
+      <c r="K8" s="75"/>
+      <c r="L8" s="75"/>
       <c r="M8" s="60" t="s">
         <v>171</v>
       </c>
@@ -23822,21 +23767,21 @@
       <c r="A9" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="B9" s="77" t="s">
+      <c r="B9" s="78" t="s">
         <v>265</v>
       </c>
-      <c r="C9" s="77"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="77"/>
-      <c r="G9" s="77" t="s">
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="78" t="s">
         <v>244</v>
       </c>
-      <c r="H9" s="77"/>
-      <c r="I9" s="77"/>
-      <c r="J9" s="77"/>
-      <c r="K9" s="77"/>
-      <c r="L9" s="77"/>
+      <c r="H9" s="78"/>
+      <c r="I9" s="78"/>
+      <c r="J9" s="78"/>
+      <c r="K9" s="78"/>
+      <c r="L9" s="78"/>
       <c r="M9" s="61" t="s">
         <v>246</v>
       </c>
@@ -23851,21 +23796,21 @@
       <c r="A10" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="B10" s="72">
+      <c r="B10" s="73">
         <v>41514</v>
       </c>
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="72">
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="73">
         <v>41388</v>
       </c>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="74"/>
+      <c r="L10" s="74"/>
       <c r="M10" s="58">
         <v>41516</v>
       </c>
@@ -34448,42 +34393,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="76" t="s">
         <v>242</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="77" t="s">
         <v>169</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="76"/>
-      <c r="O2" s="76"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="77"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="53"/>
@@ -34574,21 +34519,21 @@
       <c r="A8" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="B8" s="74" t="s">
+      <c r="B8" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="74"/>
-      <c r="D8" s="74"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="74" t="s">
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="74"/>
-      <c r="I8" s="74"/>
-      <c r="J8" s="74"/>
-      <c r="K8" s="74"/>
-      <c r="L8" s="74"/>
+      <c r="H8" s="75"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="75"/>
+      <c r="K8" s="75"/>
+      <c r="L8" s="75"/>
       <c r="M8" s="54" t="s">
         <v>171</v>
       </c>
@@ -34603,21 +34548,21 @@
       <c r="A9" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="B9" s="77" t="s">
+      <c r="B9" s="78" t="s">
         <v>243</v>
       </c>
-      <c r="C9" s="77"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="77"/>
-      <c r="G9" s="77" t="s">
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="78" t="s">
         <v>244</v>
       </c>
-      <c r="H9" s="77"/>
-      <c r="I9" s="77"/>
-      <c r="J9" s="77"/>
-      <c r="K9" s="77"/>
-      <c r="L9" s="77"/>
+      <c r="H9" s="78"/>
+      <c r="I9" s="78"/>
+      <c r="J9" s="78"/>
+      <c r="K9" s="78"/>
+      <c r="L9" s="78"/>
       <c r="M9" s="55" t="s">
         <v>237</v>
       </c>
@@ -34632,21 +34577,21 @@
       <c r="A10" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="B10" s="72">
+      <c r="B10" s="73">
         <v>41387</v>
       </c>
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="72">
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="73">
         <v>41388</v>
       </c>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="74"/>
+      <c r="L10" s="74"/>
       <c r="M10" s="52">
         <v>41328</v>
       </c>
@@ -44240,42 +44185,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="76" t="s">
         <v>230</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="77" t="s">
         <v>169</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="76"/>
-      <c r="O2" s="76"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="77"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="48"/>
@@ -44366,21 +44311,21 @@
       <c r="A8" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="B8" s="74" t="s">
+      <c r="B8" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="74"/>
-      <c r="D8" s="74"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="74" t="s">
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="74"/>
-      <c r="I8" s="74"/>
-      <c r="J8" s="74"/>
-      <c r="K8" s="74"/>
-      <c r="L8" s="74"/>
+      <c r="H8" s="75"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="75"/>
+      <c r="K8" s="75"/>
+      <c r="L8" s="75"/>
       <c r="M8" s="49" t="s">
         <v>171</v>
       </c>
@@ -44395,21 +44340,21 @@
       <c r="A9" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="B9" s="77" t="s">
+      <c r="B9" s="78" t="s">
         <v>232</v>
       </c>
-      <c r="C9" s="77"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="77"/>
-      <c r="G9" s="77" t="s">
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="78" t="s">
         <v>233</v>
       </c>
-      <c r="H9" s="77"/>
-      <c r="I9" s="77"/>
-      <c r="J9" s="77"/>
-      <c r="K9" s="77"/>
-      <c r="L9" s="77"/>
+      <c r="H9" s="78"/>
+      <c r="I9" s="78"/>
+      <c r="J9" s="78"/>
+      <c r="K9" s="78"/>
+      <c r="L9" s="78"/>
       <c r="M9" s="50" t="s">
         <v>237</v>
       </c>
@@ -44424,21 +44369,21 @@
       <c r="A10" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="B10" s="72">
+      <c r="B10" s="73">
         <v>41349</v>
       </c>
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="72">
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="73">
         <v>41351</v>
       </c>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="74"/>
+      <c r="L10" s="74"/>
       <c r="M10" s="47">
         <v>41328</v>
       </c>
@@ -54032,42 +53977,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="76" t="s">
         <v>225</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="77" t="s">
         <v>169</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="76"/>
-      <c r="O2" s="76"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="77"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="45"/>
@@ -54158,21 +54103,21 @@
       <c r="A8" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="B8" s="74" t="s">
+      <c r="B8" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="74"/>
-      <c r="D8" s="74"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="74" t="s">
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="74"/>
-      <c r="I8" s="74"/>
-      <c r="J8" s="74"/>
-      <c r="K8" s="74"/>
-      <c r="L8" s="74"/>
+      <c r="H8" s="75"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="75"/>
+      <c r="K8" s="75"/>
+      <c r="L8" s="75"/>
       <c r="M8" s="43" t="s">
         <v>171</v>
       </c>
@@ -54187,21 +54132,21 @@
       <c r="A9" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="B9" s="77" t="s">
+      <c r="B9" s="78" t="s">
         <v>226</v>
       </c>
-      <c r="C9" s="77"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="77"/>
-      <c r="G9" s="77" t="s">
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="78" t="s">
         <v>227</v>
       </c>
-      <c r="H9" s="77"/>
-      <c r="I9" s="77"/>
-      <c r="J9" s="77"/>
-      <c r="K9" s="77"/>
-      <c r="L9" s="77"/>
+      <c r="H9" s="78"/>
+      <c r="I9" s="78"/>
+      <c r="J9" s="78"/>
+      <c r="K9" s="78"/>
+      <c r="L9" s="78"/>
       <c r="M9" s="44" t="s">
         <v>223</v>
       </c>
@@ -54216,21 +54161,21 @@
       <c r="A10" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="B10" s="72">
+      <c r="B10" s="73">
         <v>40957</v>
       </c>
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="72">
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="73">
         <v>41324</v>
       </c>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="74"/>
+      <c r="L10" s="74"/>
       <c r="M10" s="42">
         <v>41296</v>
       </c>
@@ -63768,42 +63713,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="76" t="s">
         <v>179</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="77" t="s">
         <v>169</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="76"/>
-      <c r="O2" s="76"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="77"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14"/>
@@ -63826,21 +63771,21 @@
       <c r="A4" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
       <c r="M4" s="35" t="s">
         <v>171</v>
       </c>
@@ -63855,21 +63800,21 @@
       <c r="A5" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="78" t="s">
         <v>217</v>
       </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77" t="s">
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78" t="s">
         <v>216</v>
       </c>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="77"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="78"/>
+      <c r="K5" s="78"/>
+      <c r="L5" s="78"/>
       <c r="M5" s="26" t="s">
         <v>172</v>
       </c>
@@ -63884,21 +63829,21 @@
       <c r="A6" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="B6" s="72">
+      <c r="B6" s="73">
         <v>41302</v>
       </c>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="72">
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="73">
         <v>41292</v>
       </c>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
-      <c r="L6" s="73"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="74"/>
+      <c r="L6" s="74"/>
       <c r="M6" s="28">
         <v>41259</v>
       </c>
@@ -73486,58 +73431,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="76" t="s">
         <v>170</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="77" t="s">
         <v>169</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
-      <c r="M2" s="78"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
       <c r="M4" s="23" t="s">
         <v>171</v>
       </c>
@@ -73546,21 +73491,21 @@
       <c r="A5" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="78" t="s">
         <v>174</v>
       </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77" t="s">
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78" t="s">
         <v>173</v>
       </c>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="77"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="78"/>
+      <c r="K5" s="78"/>
+      <c r="L5" s="78"/>
       <c r="M5" s="25" t="s">
         <v>172</v>
       </c>
@@ -73569,21 +73514,21 @@
       <c r="A6" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="B6" s="72">
+      <c r="B6" s="73">
         <v>41261</v>
       </c>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="72">
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="73">
         <v>41250</v>
       </c>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
-      <c r="L6" s="73"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="74"/>
+      <c r="L6" s="74"/>
       <c r="M6" s="27">
         <v>41259</v>
       </c>
